--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -452,19 +452,19 @@
         <v>986</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.971602434077079</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.633874239350913</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9026369168357</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.208924949290061</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>986</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.997971602434077</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.988843813387424</v>
       </c>
       <c r="J3" t="n">
-        <v>0.969574036511156</v>
+        <v>0.472616632860041</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.988843813387424</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
     </row>
     <row r="4">
@@ -528,19 +528,19 @@
         <v>986</v>
       </c>
       <c r="H4" t="n">
-        <v>0.977687626774848</v>
+        <v>0.81237322515213</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.989858012170385</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.99290060851927</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.940162271805274</v>
       </c>
     </row>
     <row r="5">
@@ -566,19 +566,19 @@
         <v>986</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.997971602434077</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.993914807302231</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.993914807302231</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.993914807302231</v>
       </c>
     </row>
     <row r="6">
@@ -607,16 +607,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.864</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="7">
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.997</v>
+        <v>0.825</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -680,11 +680,11 @@
         <v>1000</v>
       </c>
       <c r="H8" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.998</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="9">
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.962</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.936</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="13">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -908,19 +908,19 @@
         <v>999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.953953953953954</v>
+        <v>0.738738738738739</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.998998998998999</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.997997997997998</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.895895895895896</v>
       </c>
     </row>
     <row r="15">
@@ -946,19 +946,19 @@
         <v>999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.985985985985986</v>
       </c>
       <c r="I15" t="n">
-        <v>0.997997997997998</v>
+        <v>0.813813813813814</v>
       </c>
       <c r="J15" t="n">
-        <v>0.647647647647648</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="K15" t="n">
-        <v>0.998998998998999</v>
+        <v>0.987987987987988</v>
       </c>
       <c r="L15" t="n">
-        <v>0.998998998998999</v>
+        <v>0.867867867867868</v>
       </c>
     </row>
     <row r="16">
@@ -984,19 +984,19 @@
         <v>999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.672672672672673</v>
+        <v>0.452452452452452</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.987987987987988</v>
       </c>
       <c r="J16" t="n">
-        <v>0.997997997997998</v>
+        <v>0.927927927927928</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.998998998998999</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.987987987987988</v>
       </c>
     </row>
     <row r="17">
@@ -1022,19 +1022,19 @@
         <v>999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.992992992992993</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.935935935935936</v>
       </c>
       <c r="J17" t="n">
-        <v>0.977977977977978</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.998998998998999</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.935935935935936</v>
       </c>
     </row>
     <row r="18">
@@ -1060,7 +1060,7 @@
         <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="19">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="J19" t="n">
-        <v>0.929</v>
+        <v>0.394</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="20">
@@ -1136,13 +1136,13 @@
         <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>0.867</v>
+        <v>0.723</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1177,16 +1177,16 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="22">
@@ -1212,7 +1212,7 @@
         <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="23">
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J23" t="n">
-        <v>0.993</v>
+        <v>0.668</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1288,13 +1288,13 @@
         <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>0.94</v>
+        <v>0.866</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1329,16 +1329,16 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.966</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="26">
@@ -1364,19 +1364,19 @@
         <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>0.561</v>
+        <v>0.306</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0.944</v>
       </c>
       <c r="J26" t="n">
-        <v>0.978</v>
+        <v>0.57</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="27">
@@ -1402,19 +1402,19 @@
         <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>0.996</v>
+        <v>0.931</v>
       </c>
       <c r="I27" t="n">
-        <v>0.711</v>
+        <v>0.159</v>
       </c>
       <c r="J27" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="L27" t="n">
-        <v>0.753</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="28">
@@ -1440,19 +1440,19 @@
         <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>0.679</v>
+        <v>0.426</v>
       </c>
       <c r="I28" t="n">
-        <v>0.996</v>
+        <v>0.91</v>
       </c>
       <c r="J28" t="n">
-        <v>0.946</v>
+        <v>0.582</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0.996</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="29">
@@ -1478,19 +1478,19 @@
         <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>0.998</v>
+        <v>0.945</v>
       </c>
       <c r="I29" t="n">
-        <v>0.925</v>
+        <v>0.543</v>
       </c>
       <c r="J29" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.543</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.925</v>
       </c>
     </row>
     <row r="30">
@@ -1516,13 +1516,13 @@
         <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>0.995</v>
+        <v>0.957</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1557,16 +1557,16 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.993</v>
+        <v>0.802</v>
       </c>
       <c r="J31" t="n">
-        <v>0.209</v>
+        <v>0.012</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.996</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="32">
@@ -1592,19 +1592,19 @@
         <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>0.807</v>
+        <v>0.666</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="J32" t="n">
-        <v>0.995</v>
+        <v>0.857</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="33">
@@ -1633,16 +1633,16 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0.951</v>
       </c>
       <c r="J33" t="n">
-        <v>0.86</v>
+        <v>0.381</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="34">
@@ -1668,7 +1668,7 @@
         <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1709,16 +1709,16 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0.979</v>
       </c>
       <c r="J35" t="n">
-        <v>0.439</v>
+        <v>0.055</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="36">
@@ -1744,19 +1744,19 @@
         <v>1000</v>
       </c>
       <c r="H36" t="n">
-        <v>0.887</v>
+        <v>0.819</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J36" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1785,16 +1785,16 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="J37" t="n">
-        <v>0.965</v>
+        <v>0.607</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="38">
@@ -1820,19 +1820,19 @@
         <v>1000</v>
       </c>
       <c r="H38" t="n">
-        <v>0.968</v>
+        <v>0.751</v>
       </c>
       <c r="I38" t="n">
-        <v>0.727</v>
+        <v>0.087</v>
       </c>
       <c r="J38" t="n">
-        <v>0.974</v>
+        <v>0.475</v>
       </c>
       <c r="K38" t="n">
-        <v>0.846</v>
+        <v>0.425</v>
       </c>
       <c r="L38" t="n">
-        <v>0.083</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="39">
@@ -1858,19 +1858,19 @@
         <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>0.982</v>
+        <v>0.715</v>
       </c>
       <c r="I39" t="n">
-        <v>0.999</v>
+        <v>0.86</v>
       </c>
       <c r="J39" t="n">
-        <v>0.436</v>
+        <v>0.05</v>
       </c>
       <c r="K39" t="n">
-        <v>0.923</v>
+        <v>0.629</v>
       </c>
       <c r="L39" t="n">
-        <v>0.996</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="40">
@@ -1896,19 +1896,19 @@
         <v>1000</v>
       </c>
       <c r="H40" t="n">
-        <v>0.724</v>
+        <v>0.46</v>
       </c>
       <c r="I40" t="n">
-        <v>0.965</v>
+        <v>0.492</v>
       </c>
       <c r="J40" t="n">
-        <v>0.99</v>
+        <v>0.731</v>
       </c>
       <c r="K40" t="n">
-        <v>0.722</v>
+        <v>0.267</v>
       </c>
       <c r="L40" t="n">
-        <v>0.901</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="41">
@@ -1934,19 +1934,19 @@
         <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>0.995</v>
+        <v>0.741</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
       <c r="J41" t="n">
-        <v>0.964</v>
+        <v>0.442</v>
       </c>
       <c r="K41" t="n">
-        <v>0.829</v>
+        <v>0.445</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="42">
@@ -1972,19 +1972,19 @@
         <v>1000</v>
       </c>
       <c r="H42" t="n">
-        <v>0.999</v>
+        <v>0.97</v>
       </c>
       <c r="I42" t="n">
-        <v>0.823</v>
+        <v>0.108</v>
       </c>
       <c r="J42" t="n">
-        <v>0.998</v>
+        <v>0.649</v>
       </c>
       <c r="K42" t="n">
-        <v>0.806</v>
+        <v>0.461</v>
       </c>
       <c r="L42" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2010,19 +2010,19 @@
         <v>1000</v>
       </c>
       <c r="H43" t="n">
-        <v>0.993</v>
+        <v>0.817</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="J43" t="n">
-        <v>0.847</v>
+        <v>0.252</v>
       </c>
       <c r="K43" t="n">
-        <v>0.873</v>
+        <v>0.643</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="44">
@@ -2048,19 +2048,19 @@
         <v>1000</v>
       </c>
       <c r="H44" t="n">
-        <v>0.633</v>
+        <v>0.437</v>
       </c>
       <c r="I44" t="n">
-        <v>0.998</v>
+        <v>0.723</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.948</v>
       </c>
       <c r="K44" t="n">
-        <v>0.729</v>
+        <v>0.385</v>
       </c>
       <c r="L44" t="n">
-        <v>0.985</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="45">
@@ -2086,19 +2086,19 @@
         <v>1000</v>
       </c>
       <c r="H45" t="n">
-        <v>0.998</v>
+        <v>0.835</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="J45" t="n">
-        <v>0.998</v>
+        <v>0.775</v>
       </c>
       <c r="K45" t="n">
-        <v>0.778</v>
+        <v>0.482</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="46">
@@ -2124,19 +2124,19 @@
         <v>1000</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="I46" t="n">
-        <v>0.84</v>
+        <v>0.104</v>
       </c>
       <c r="J46" t="n">
-        <v>0.999</v>
+        <v>0.733</v>
       </c>
       <c r="K46" t="n">
-        <v>0.738</v>
+        <v>0.457</v>
       </c>
       <c r="L46" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2162,19 +2162,19 @@
         <v>1000</v>
       </c>
       <c r="H47" t="n">
-        <v>0.99</v>
+        <v>0.847</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J47" t="n">
-        <v>0.972</v>
+        <v>0.509</v>
       </c>
       <c r="K47" t="n">
-        <v>0.818</v>
+        <v>0.635</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="48">
@@ -2200,19 +2200,19 @@
         <v>1000</v>
       </c>
       <c r="H48" t="n">
-        <v>0.56</v>
+        <v>0.414</v>
       </c>
       <c r="I48" t="n">
-        <v>0.997</v>
+        <v>0.841</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="K48" t="n">
-        <v>0.699</v>
+        <v>0.437</v>
       </c>
       <c r="L48" t="n">
-        <v>0.992</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="49">
@@ -2238,19 +2238,19 @@
         <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>0.997</v>
+        <v>0.893</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0.921</v>
       </c>
       <c r="K49" t="n">
-        <v>0.75</v>
+        <v>0.517</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="50">
@@ -2276,19 +2276,19 @@
         <v>1000</v>
       </c>
       <c r="H50" t="n">
-        <v>0.795</v>
+        <v>0.502</v>
       </c>
       <c r="I50" t="n">
-        <v>0.999</v>
+        <v>0.924</v>
       </c>
       <c r="J50" t="n">
-        <v>0.994</v>
+        <v>0.841</v>
       </c>
       <c r="K50" t="n">
-        <v>0.933</v>
+        <v>0.671</v>
       </c>
       <c r="L50" t="n">
-        <v>0.908</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="51">
@@ -2314,19 +2314,19 @@
         <v>1000</v>
       </c>
       <c r="H51" t="n">
-        <v>0.998</v>
+        <v>0.911</v>
       </c>
       <c r="I51" t="n">
-        <v>0.702</v>
+        <v>0.142</v>
       </c>
       <c r="J51" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.949</v>
+        <v>0.741</v>
       </c>
       <c r="L51" t="n">
-        <v>0.855</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="52">
@@ -2352,19 +2352,19 @@
         <v>1000</v>
       </c>
       <c r="H52" t="n">
-        <v>0.67</v>
+        <v>0.386</v>
       </c>
       <c r="I52" t="n">
-        <v>0.998</v>
+        <v>0.875</v>
       </c>
       <c r="J52" t="n">
-        <v>0.928</v>
+        <v>0.621</v>
       </c>
       <c r="K52" t="n">
-        <v>0.769</v>
+        <v>0.401</v>
       </c>
       <c r="L52" t="n">
-        <v>0.998</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="53">
@@ -2390,19 +2390,19 @@
         <v>1000</v>
       </c>
       <c r="H53" t="n">
-        <v>0.997</v>
+        <v>0.891</v>
       </c>
       <c r="I53" t="n">
-        <v>0.881</v>
+        <v>0.331</v>
       </c>
       <c r="J53" t="n">
-        <v>0.236</v>
+        <v>0.014</v>
       </c>
       <c r="K53" t="n">
-        <v>0.834</v>
+        <v>0.497</v>
       </c>
       <c r="L53" t="n">
-        <v>0.881</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="54">
@@ -2428,19 +2428,19 @@
         <v>1000</v>
       </c>
       <c r="H54" t="n">
-        <v>0.999</v>
+        <v>0.974</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.879</v>
+        <v>0.702</v>
       </c>
       <c r="L54" t="n">
-        <v>0.987</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="55">
@@ -2466,19 +2466,19 @@
         <v>1000</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="I55" t="n">
-        <v>0.995</v>
+        <v>0.808</v>
       </c>
       <c r="J55" t="n">
-        <v>0.054</v>
+        <v>0.001</v>
       </c>
       <c r="K55" t="n">
-        <v>0.909</v>
+        <v>0.772</v>
       </c>
       <c r="L55" t="n">
-        <v>0.998</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="56">
@@ -2504,19 +2504,19 @@
         <v>1000</v>
       </c>
       <c r="H56" t="n">
-        <v>0.699</v>
+        <v>0.502</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="J56" t="n">
-        <v>0.986</v>
+        <v>0.798</v>
       </c>
       <c r="K56" t="n">
-        <v>0.756</v>
+        <v>0.506</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="57">
@@ -2542,19 +2542,19 @@
         <v>1000</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="I57" t="n">
-        <v>0.998</v>
+        <v>0.843</v>
       </c>
       <c r="J57" t="n">
-        <v>0.605</v>
+        <v>0.095</v>
       </c>
       <c r="K57" t="n">
-        <v>0.811</v>
+        <v>0.581</v>
       </c>
       <c r="L57" t="n">
-        <v>0.998</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="58">
@@ -2583,16 +2583,16 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0.847</v>
+        <v>0.675</v>
       </c>
       <c r="L58" t="n">
-        <v>0.995</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="59">
@@ -2618,19 +2618,19 @@
         <v>1000</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0.973</v>
       </c>
       <c r="J59" t="n">
-        <v>0.195</v>
+        <v>0.006</v>
       </c>
       <c r="K59" t="n">
-        <v>0.873</v>
+        <v>0.745</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="60">
@@ -2656,16 +2656,16 @@
         <v>1000</v>
       </c>
       <c r="H60" t="n">
-        <v>0.766</v>
+        <v>0.613</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0.998</v>
+        <v>0.909</v>
       </c>
       <c r="K60" t="n">
-        <v>0.786</v>
+        <v>0.574</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2694,19 +2694,19 @@
         <v>1000</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J61" t="n">
-        <v>0.817</v>
+        <v>0.23</v>
       </c>
       <c r="K61" t="n">
-        <v>0.804</v>
+        <v>0.622</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="62">
@@ -2732,19 +2732,19 @@
         <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>0.501</v>
+        <v>0.24</v>
       </c>
       <c r="I62" t="n">
-        <v>0.296</v>
+        <v>0.021</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.956</v>
+        <v>0.798</v>
       </c>
       <c r="L62" t="n">
-        <v>0.981</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="63">
@@ -2770,19 +2770,19 @@
         <v>1000</v>
       </c>
       <c r="H63" t="n">
-        <v>0.989</v>
+        <v>0.89</v>
       </c>
       <c r="I63" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.957</v>
+        <v>0.821</v>
       </c>
       <c r="L63" t="n">
-        <v>0.036</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="64">
@@ -2808,19 +2808,19 @@
         <v>1000</v>
       </c>
       <c r="H64" t="n">
-        <v>0.658</v>
+        <v>0.376</v>
       </c>
       <c r="I64" t="n">
-        <v>0.586</v>
+        <v>0.158</v>
       </c>
       <c r="J64" t="n">
-        <v>0.139</v>
+        <v>0.011</v>
       </c>
       <c r="K64" t="n">
-        <v>0.822</v>
+        <v>0.5</v>
       </c>
       <c r="L64" t="n">
-        <v>0.599</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="65">
@@ -2846,19 +2846,19 @@
         <v>1000</v>
       </c>
       <c r="H65" t="n">
-        <v>0.952</v>
+        <v>0.685</v>
       </c>
       <c r="I65" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.857</v>
+        <v>0.574</v>
       </c>
       <c r="L65" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2884,16 +2884,16 @@
         <v>1000</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
       <c r="J66" t="n">
-        <v>0.297</v>
+        <v>0.012</v>
       </c>
       <c r="K66" t="n">
-        <v>0.933</v>
+        <v>0.828</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2925,16 +2925,16 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.94</v>
+        <v>0.845</v>
       </c>
       <c r="L67" t="n">
-        <v>0.751</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="68">
@@ -2960,19 +2960,19 @@
         <v>1000</v>
       </c>
       <c r="H68" t="n">
-        <v>0.955</v>
+        <v>0.856</v>
       </c>
       <c r="I68" t="n">
-        <v>0.909</v>
+        <v>0.564</v>
       </c>
       <c r="J68" t="n">
-        <v>0.318</v>
+        <v>0.052</v>
       </c>
       <c r="K68" t="n">
-        <v>0.832</v>
+        <v>0.617</v>
       </c>
       <c r="L68" t="n">
-        <v>0.909</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="69">
@@ -2998,19 +2998,19 @@
         <v>1000</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="I69" t="n">
-        <v>0.185</v>
+        <v>0.004</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.848</v>
+        <v>0.673</v>
       </c>
       <c r="L69" t="n">
-        <v>0.185</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="70">
@@ -3039,13 +3039,13 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="J70" t="n">
-        <v>0.847</v>
+        <v>0.227</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9</v>
+        <v>0.783</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
@@ -3077,16 +3077,16 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.344</v>
+        <v>0.033</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.908</v>
+        <v>0.796</v>
       </c>
       <c r="L71" t="n">
-        <v>0.979</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="72">
@@ -3112,19 +3112,19 @@
         <v>1000</v>
       </c>
       <c r="H72" t="n">
-        <v>0.997</v>
+        <v>0.97</v>
       </c>
       <c r="I72" t="n">
-        <v>0.989</v>
+        <v>0.826</v>
       </c>
       <c r="J72" t="n">
-        <v>0.474</v>
+        <v>0.112</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="L72" t="n">
-        <v>0.989</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="73">
@@ -3153,16 +3153,16 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.598</v>
+        <v>0.107</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.817</v>
+        <v>0.654</v>
       </c>
       <c r="L73" t="n">
-        <v>0.598</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="74">
@@ -3188,16 +3188,16 @@
         <v>1000</v>
       </c>
       <c r="H74" t="n">
-        <v>0.889</v>
+        <v>0.529</v>
       </c>
       <c r="I74" t="n">
-        <v>0.226</v>
+        <v>0.003</v>
       </c>
       <c r="J74" t="n">
-        <v>0.877</v>
+        <v>0.229</v>
       </c>
       <c r="K74" t="n">
-        <v>0.436</v>
+        <v>0.097</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3226,19 +3226,19 @@
         <v>1000</v>
       </c>
       <c r="H75" t="n">
-        <v>0.753</v>
+        <v>0.27</v>
       </c>
       <c r="I75" t="n">
-        <v>0.992</v>
+        <v>0.686</v>
       </c>
       <c r="J75" t="n">
-        <v>0.078</v>
+        <v>0.001</v>
       </c>
       <c r="K75" t="n">
-        <v>0.659</v>
+        <v>0.25</v>
       </c>
       <c r="L75" t="n">
-        <v>0.946</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="76">
@@ -3264,19 +3264,19 @@
         <v>1000</v>
       </c>
       <c r="H76" t="n">
-        <v>0.707</v>
+        <v>0.339</v>
       </c>
       <c r="I76" t="n">
-        <v>0.631</v>
+        <v>0.128</v>
       </c>
       <c r="J76" t="n">
-        <v>0.898</v>
+        <v>0.405</v>
       </c>
       <c r="K76" t="n">
-        <v>0.161</v>
+        <v>0.024</v>
       </c>
       <c r="L76" t="n">
-        <v>0.524</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="77">
@@ -3302,19 +3302,19 @@
         <v>1000</v>
       </c>
       <c r="H77" t="n">
-        <v>0.858</v>
+        <v>0.312</v>
       </c>
       <c r="I77" t="n">
-        <v>0.999</v>
+        <v>0.711</v>
       </c>
       <c r="J77" t="n">
-        <v>0.811</v>
+        <v>0.186</v>
       </c>
       <c r="K77" t="n">
-        <v>0.343</v>
+        <v>0.088</v>
       </c>
       <c r="L77" t="n">
-        <v>0.999</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="78">
@@ -3340,16 +3340,16 @@
         <v>1000</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0.912</v>
       </c>
       <c r="I78" t="n">
-        <v>0.268</v>
+        <v>0.004</v>
       </c>
       <c r="J78" t="n">
-        <v>0.958</v>
+        <v>0.348</v>
       </c>
       <c r="K78" t="n">
-        <v>0.402</v>
+        <v>0.1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -3378,19 +3378,19 @@
         <v>1000</v>
       </c>
       <c r="H79" t="n">
-        <v>0.842</v>
+        <v>0.361</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0.964</v>
       </c>
       <c r="J79" t="n">
-        <v>0.404</v>
+        <v>0.032</v>
       </c>
       <c r="K79" t="n">
-        <v>0.59</v>
+        <v>0.255</v>
       </c>
       <c r="L79" t="n">
-        <v>0.998</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="80">
@@ -3416,19 +3416,19 @@
         <v>1000</v>
       </c>
       <c r="H80" t="n">
-        <v>0.637</v>
+        <v>0.414</v>
       </c>
       <c r="I80" t="n">
-        <v>0.88</v>
+        <v>0.283</v>
       </c>
       <c r="J80" t="n">
-        <v>0.994</v>
+        <v>0.736</v>
       </c>
       <c r="K80" t="n">
-        <v>0.241</v>
+        <v>0.043</v>
       </c>
       <c r="L80" t="n">
-        <v>0.809</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="81">
@@ -3454,19 +3454,19 @@
         <v>1000</v>
       </c>
       <c r="H81" t="n">
-        <v>0.923</v>
+        <v>0.402</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
       <c r="J81" t="n">
-        <v>0.951</v>
+        <v>0.4</v>
       </c>
       <c r="K81" t="n">
-        <v>0.371</v>
+        <v>0.107</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="82">
@@ -3492,16 +3492,16 @@
         <v>1000</v>
       </c>
       <c r="H82" t="n">
-        <v>0.998</v>
+        <v>0.954</v>
       </c>
       <c r="I82" t="n">
-        <v>0.273</v>
+        <v>0.004</v>
       </c>
       <c r="J82" t="n">
-        <v>0.969</v>
+        <v>0.427</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3</v>
+        <v>0.085</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -3530,19 +3530,19 @@
         <v>1000</v>
       </c>
       <c r="H83" t="n">
-        <v>0.825</v>
+        <v>0.386</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="J83" t="n">
-        <v>0.692</v>
+        <v>0.105</v>
       </c>
       <c r="K83" t="n">
-        <v>0.503</v>
+        <v>0.244</v>
       </c>
       <c r="L83" t="n">
-        <v>0.997</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84">
@@ -3568,19 +3568,19 @@
         <v>1000</v>
       </c>
       <c r="H84" t="n">
-        <v>0.555</v>
+        <v>0.368</v>
       </c>
       <c r="I84" t="n">
-        <v>0.951</v>
+        <v>0.475</v>
       </c>
       <c r="J84" t="n">
-        <v>0.999</v>
+        <v>0.892</v>
       </c>
       <c r="K84" t="n">
-        <v>0.24</v>
+        <v>0.073</v>
       </c>
       <c r="L84" t="n">
-        <v>0.909</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="85">
@@ -3606,19 +3606,19 @@
         <v>1000</v>
       </c>
       <c r="H85" t="n">
-        <v>0.92</v>
+        <v>0.49</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
       <c r="J85" t="n">
-        <v>0.987</v>
+        <v>0.624</v>
       </c>
       <c r="K85" t="n">
-        <v>0.333</v>
+        <v>0.127</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="86">
@@ -3644,19 +3644,19 @@
         <v>1000</v>
       </c>
       <c r="H86" t="n">
-        <v>0.655</v>
+        <v>0.373</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0.876</v>
       </c>
       <c r="J86" t="n">
-        <v>0.755</v>
+        <v>0.169</v>
       </c>
       <c r="K86" t="n">
-        <v>0.743</v>
+        <v>0.301</v>
       </c>
       <c r="L86" t="n">
-        <v>0.656</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="87">
@@ -3682,19 +3682,19 @@
         <v>1000</v>
       </c>
       <c r="H87" t="n">
-        <v>0.986</v>
+        <v>0.732</v>
       </c>
       <c r="I87" t="n">
-        <v>0.124</v>
+        <v>0.003</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.799</v>
+        <v>0.408</v>
       </c>
       <c r="L87" t="n">
-        <v>0.588</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="88">
@@ -3720,19 +3720,19 @@
         <v>1000</v>
       </c>
       <c r="H88" t="n">
-        <v>0.719</v>
+        <v>0.402</v>
       </c>
       <c r="I88" t="n">
-        <v>0.981</v>
+        <v>0.624</v>
       </c>
       <c r="J88" t="n">
-        <v>0.772</v>
+        <v>0.367</v>
       </c>
       <c r="K88" t="n">
-        <v>0.307</v>
+        <v>0.046</v>
       </c>
       <c r="L88" t="n">
-        <v>0.952</v>
+        <v>0.565</v>
       </c>
     </row>
     <row r="89">
@@ -3758,19 +3758,19 @@
         <v>1000</v>
       </c>
       <c r="H89" t="n">
-        <v>0.99</v>
+        <v>0.714</v>
       </c>
       <c r="I89" t="n">
-        <v>0.401</v>
+        <v>0.046</v>
       </c>
       <c r="J89" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.499</v>
+        <v>0.127</v>
       </c>
       <c r="L89" t="n">
-        <v>0.401</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="90">
@@ -3796,19 +3796,19 @@
         <v>1000</v>
       </c>
       <c r="H90" t="n">
-        <v>0.999</v>
+        <v>0.96</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0.973</v>
       </c>
       <c r="J90" t="n">
-        <v>0.999</v>
+        <v>0.909</v>
       </c>
       <c r="K90" t="n">
-        <v>0.646</v>
+        <v>0.3</v>
       </c>
       <c r="L90" t="n">
-        <v>0.833</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="91">
@@ -3834,19 +3834,19 @@
         <v>1000</v>
       </c>
       <c r="H91" t="n">
-        <v>0.996</v>
+        <v>0.86</v>
       </c>
       <c r="I91" t="n">
-        <v>0.823</v>
+        <v>0.235</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.729</v>
+        <v>0.393</v>
       </c>
       <c r="L91" t="n">
-        <v>0.99</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="92">
@@ -3872,19 +3872,19 @@
         <v>1000</v>
       </c>
       <c r="H92" t="n">
-        <v>0.825</v>
+        <v>0.619</v>
       </c>
       <c r="I92" t="n">
-        <v>0.998</v>
+        <v>0.923</v>
       </c>
       <c r="J92" t="n">
-        <v>0.86</v>
+        <v>0.486</v>
       </c>
       <c r="K92" t="n">
-        <v>0.369</v>
+        <v>0.092</v>
       </c>
       <c r="L92" t="n">
-        <v>0.997</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="93">
@@ -3910,19 +3910,19 @@
         <v>1000</v>
       </c>
       <c r="H93" t="n">
-        <v>0.999</v>
+        <v>0.895</v>
       </c>
       <c r="I93" t="n">
-        <v>0.881</v>
+        <v>0.318</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.473</v>
+        <v>0.169</v>
       </c>
       <c r="L93" t="n">
-        <v>0.881</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="94">
@@ -3948,19 +3948,19 @@
         <v>1000</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="K94" t="n">
-        <v>0.548</v>
+        <v>0.284</v>
       </c>
       <c r="L94" t="n">
-        <v>0.92</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="95">
@@ -3986,19 +3986,19 @@
         <v>1000</v>
       </c>
       <c r="H95" t="n">
-        <v>0.999</v>
+        <v>0.896</v>
       </c>
       <c r="I95" t="n">
-        <v>0.986</v>
+        <v>0.644</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.625</v>
+        <v>0.385</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="96">
@@ -4024,19 +4024,19 @@
         <v>1000</v>
       </c>
       <c r="H96" t="n">
-        <v>0.902</v>
+        <v>0.768</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="J96" t="n">
-        <v>0.936</v>
+        <v>0.611</v>
       </c>
       <c r="K96" t="n">
-        <v>0.338</v>
+        <v>0.132</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="97">
@@ -4062,19 +4062,19 @@
         <v>1000</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
       <c r="I97" t="n">
-        <v>0.993</v>
+        <v>0.714</v>
       </c>
       <c r="J97" t="n">
-        <v>0.093</v>
+        <v>0.005</v>
       </c>
       <c r="K97" t="n">
-        <v>0.426</v>
+        <v>0.208</v>
       </c>
       <c r="L97" t="n">
-        <v>0.993</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="98">
@@ -4100,7 +4100,7 @@
         <v>997</v>
       </c>
       <c r="H98" t="n">
-        <v>0.52457372116349</v>
+        <v>0.244734202607823</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.856569709127382</v>
+        <v>0.503510531594784</v>
       </c>
       <c r="L98" t="n">
-        <v>0.587763289869609</v>
+        <v>0.226680040120361</v>
       </c>
     </row>
     <row r="99">
@@ -4138,7 +4138,7 @@
         <v>997</v>
       </c>
       <c r="H99" t="n">
-        <v>0.981945837512538</v>
+        <v>0.813440320962889</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.864593781344032</v>
+        <v>0.520561685055166</v>
       </c>
       <c r="L99" t="n">
-        <v>0.00200601805416249</v>
+        <v>0.00100300902708124</v>
       </c>
     </row>
     <row r="100">
@@ -4176,19 +4176,19 @@
         <v>997</v>
       </c>
       <c r="H100" t="n">
-        <v>0.83049147442327</v>
+        <v>0.529588766298897</v>
       </c>
       <c r="I100" t="n">
-        <v>0.101303911735206</v>
+        <v>0.00902708124373119</v>
       </c>
       <c r="J100" t="n">
-        <v>0.00401203610832497</v>
+        <v>0.00100300902708124</v>
       </c>
       <c r="K100" t="n">
-        <v>0.424272818455366</v>
+        <v>0.112337011033099</v>
       </c>
       <c r="L100" t="n">
-        <v>0.293881644934804</v>
+        <v>0.0892678034102307</v>
       </c>
     </row>
     <row r="101">
@@ -4214,7 +4214,7 @@
         <v>997</v>
       </c>
       <c r="H101" t="n">
-        <v>0.86258776328987</v>
+        <v>0.438314944834504</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.547642928786359</v>
+        <v>0.20160481444333</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -4255,13 +4255,13 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.084</v>
+        <v>0.002</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.786</v>
+        <v>0.532</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>1000</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.805</v>
+        <v>0.559</v>
       </c>
       <c r="L103" t="n">
-        <v>0.612</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="104">
@@ -4328,19 +4328,19 @@
         <v>1000</v>
       </c>
       <c r="H104" t="n">
-        <v>0.994</v>
+        <v>0.973</v>
       </c>
       <c r="I104" t="n">
-        <v>0.423</v>
+        <v>0.096</v>
       </c>
       <c r="J104" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.467</v>
+        <v>0.184</v>
       </c>
       <c r="L104" t="n">
-        <v>0.528</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="105">
@@ -4366,7 +4366,7 @@
         <v>1000</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.55</v>
+        <v>0.273</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.654</v>
+        <v>0.102</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.722</v>
+        <v>0.501</v>
       </c>
       <c r="L106" t="n">
         <v>1</v>
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.746</v>
+        <v>0.528</v>
       </c>
       <c r="L107" t="n">
-        <v>0.958</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="108">
@@ -4483,16 +4483,16 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.644</v>
+        <v>0.243</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03</v>
+        <v>0.003</v>
       </c>
       <c r="K108" t="n">
-        <v>0.486</v>
+        <v>0.245</v>
       </c>
       <c r="L108" t="n">
-        <v>0.682</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="109">
@@ -4521,16 +4521,16 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.548</v>
+        <v>0.304</v>
       </c>
       <c r="L109" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4556,16 +4556,16 @@
         <v>999</v>
       </c>
       <c r="H110" t="n">
-        <v>0.694694694694695</v>
+        <v>0.271271271271271</v>
       </c>
       <c r="I110" t="n">
-        <v>0.00800800800800801</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.808808808808809</v>
+        <v>0.208208208208208</v>
       </c>
       <c r="K110" t="n">
-        <v>0.005005005005005</v>
+        <v>0.001001001001001</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -4594,19 +4594,19 @@
         <v>999</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02002002002002</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.943943943943944</v>
+        <v>0.48048048048048</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.038038038038038</v>
+        <v>0.002002002002002</v>
       </c>
       <c r="L111" t="n">
-        <v>0.433433433433433</v>
+        <v>0.141141141141141</v>
       </c>
     </row>
     <row r="112">
@@ -4632,19 +4632,19 @@
         <v>999</v>
       </c>
       <c r="H112" t="n">
-        <v>0.296296296296296</v>
+        <v>0.0850850850850851</v>
       </c>
       <c r="I112" t="n">
-        <v>0.046046046046046</v>
+        <v>0.00800800800800801</v>
       </c>
       <c r="J112" t="n">
-        <v>0.338338338338338</v>
+        <v>0.0870870870870871</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.042042042042042</v>
+        <v>0.00800800800800801</v>
       </c>
     </row>
     <row r="113">
@@ -4670,19 +4670,19 @@
         <v>999</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0640640640640641</v>
+        <v>0.002002002002002</v>
       </c>
       <c r="I113" t="n">
-        <v>0.941941941941942</v>
+        <v>0.431431431431431</v>
       </c>
       <c r="J113" t="n">
-        <v>0.563563563563564</v>
+        <v>0.105105105105105</v>
       </c>
       <c r="K113" t="n">
-        <v>0.001001001001001</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.941941941941942</v>
+        <v>0.431431431431431</v>
       </c>
     </row>
     <row r="114">
@@ -4708,16 +4708,16 @@
         <v>1000</v>
       </c>
       <c r="H114" t="n">
-        <v>0.737</v>
+        <v>0.334</v>
       </c>
       <c r="I114" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7</v>
+        <v>0.073</v>
       </c>
       <c r="K114" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -4746,19 +4746,19 @@
         <v>1000</v>
       </c>
       <c r="H115" t="n">
-        <v>0.019</v>
+        <v>0.001</v>
       </c>
       <c r="I115" t="n">
-        <v>0.997</v>
+        <v>0.723</v>
       </c>
       <c r="J115" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.021</v>
+        <v>0.001</v>
       </c>
       <c r="L115" t="n">
-        <v>0.469</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="116">
@@ -4784,19 +4784,19 @@
         <v>1000</v>
       </c>
       <c r="H116" t="n">
-        <v>0.527</v>
+        <v>0.177</v>
       </c>
       <c r="I116" t="n">
-        <v>0.136</v>
+        <v>0.009</v>
       </c>
       <c r="J116" t="n">
-        <v>0.633</v>
+        <v>0.195</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.12</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="117">
@@ -4822,19 +4822,19 @@
         <v>1000</v>
       </c>
       <c r="H117" t="n">
-        <v>0.047</v>
+        <v>0.001</v>
       </c>
       <c r="I117" t="n">
-        <v>0.956</v>
+        <v>0.443</v>
       </c>
       <c r="J117" t="n">
-        <v>0.533</v>
+        <v>0.057</v>
       </c>
       <c r="K117" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.956</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="118">
@@ -4860,16 +4860,16 @@
         <v>1000</v>
       </c>
       <c r="H118" t="n">
-        <v>0.751</v>
+        <v>0.37</v>
       </c>
       <c r="I118" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.724</v>
+        <v>0.101</v>
       </c>
       <c r="K118" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -4898,19 +4898,19 @@
         <v>1000</v>
       </c>
       <c r="H119" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.999</v>
+        <v>0.791</v>
       </c>
       <c r="J119" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="L119" t="n">
-        <v>0.595</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="120">
@@ -4936,19 +4936,19 @@
         <v>1000</v>
       </c>
       <c r="H120" t="n">
-        <v>0.71</v>
+        <v>0.346</v>
       </c>
       <c r="I120" t="n">
-        <v>0.211</v>
+        <v>0.022</v>
       </c>
       <c r="J120" t="n">
-        <v>0.863</v>
+        <v>0.366</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>0.185</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="121">
@@ -4974,19 +4974,19 @@
         <v>1000</v>
       </c>
       <c r="H121" t="n">
-        <v>0.066</v>
+        <v>0.004</v>
       </c>
       <c r="I121" t="n">
-        <v>0.973</v>
+        <v>0.513</v>
       </c>
       <c r="J121" t="n">
-        <v>0.634</v>
+        <v>0.091</v>
       </c>
       <c r="K121" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.973</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="122">
@@ -5012,19 +5012,19 @@
         <v>999</v>
       </c>
       <c r="H122" t="n">
-        <v>0.734734734734735</v>
+        <v>0.292292292292292</v>
       </c>
       <c r="I122" t="n">
-        <v>0.185185185185185</v>
+        <v>0.00700700700700701</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.143143143143143</v>
+        <v>0.023023023023023</v>
       </c>
       <c r="L122" t="n">
-        <v>0.201201201201201</v>
+        <v>0.028028028028028</v>
       </c>
     </row>
     <row r="123">
@@ -5050,7 +5050,7 @@
         <v>999</v>
       </c>
       <c r="H123" t="n">
-        <v>0.392392392392392</v>
+        <v>0.0700700700700701</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.199199199199199</v>
+        <v>0.043043043043043</v>
       </c>
       <c r="L123" t="n">
-        <v>0.312312312312312</v>
+        <v>0.0890890890890891</v>
       </c>
     </row>
     <row r="124">
@@ -5088,19 +5088,19 @@
         <v>999</v>
       </c>
       <c r="H124" t="n">
-        <v>0.386386386386386</v>
+        <v>0.109109109109109</v>
       </c>
       <c r="I124" t="n">
-        <v>0.786786786786787</v>
+        <v>0.306306306306306</v>
       </c>
       <c r="J124" t="n">
-        <v>0.520520520520521</v>
+        <v>0.184184184184184</v>
       </c>
       <c r="K124" t="n">
-        <v>0.001001001001001</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.444444444444444</v>
+        <v>0.124124124124124</v>
       </c>
     </row>
     <row r="125">
@@ -5126,19 +5126,19 @@
         <v>999</v>
       </c>
       <c r="H125" t="n">
-        <v>0.647647647647648</v>
+        <v>0.186186186186186</v>
       </c>
       <c r="I125" t="n">
-        <v>0.00900900900900901</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.015015015015015</v>
+        <v>0.002002002002002</v>
       </c>
       <c r="L125" t="n">
-        <v>0.00900900900900901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5164,19 +5164,19 @@
         <v>1000</v>
       </c>
       <c r="H126" t="n">
-        <v>0.891</v>
+        <v>0.487</v>
       </c>
       <c r="I126" t="n">
-        <v>0.98</v>
+        <v>0.609</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.058</v>
+        <v>0.007</v>
       </c>
       <c r="L126" t="n">
-        <v>0.131</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="127">
@@ -5202,19 +5202,19 @@
         <v>1000</v>
       </c>
       <c r="H127" t="n">
-        <v>0.338</v>
+        <v>0.038</v>
       </c>
       <c r="I127" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.079</v>
+        <v>0.01</v>
       </c>
       <c r="L127" t="n">
-        <v>0.975</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="128">
@@ -5240,19 +5240,19 @@
         <v>1000</v>
       </c>
       <c r="H128" t="n">
-        <v>0.644</v>
+        <v>0.227</v>
       </c>
       <c r="I128" t="n">
-        <v>0.916</v>
+        <v>0.476</v>
       </c>
       <c r="J128" t="n">
-        <v>0.478</v>
+        <v>0.16</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.702</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="129">
@@ -5278,19 +5278,19 @@
         <v>1000</v>
       </c>
       <c r="H129" t="n">
-        <v>0.592</v>
+        <v>0.117</v>
       </c>
       <c r="I129" t="n">
-        <v>0.031</v>
+        <v>0.001</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.031</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="130">
@@ -5316,19 +5316,19 @@
         <v>1000</v>
       </c>
       <c r="H130" t="n">
-        <v>0.879</v>
+        <v>0.449</v>
       </c>
       <c r="I130" t="n">
-        <v>0.998</v>
+        <v>0.933</v>
       </c>
       <c r="J130" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.035</v>
+        <v>0.002</v>
       </c>
       <c r="L130" t="n">
-        <v>0.168</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="131">
@@ -5354,19 +5354,19 @@
         <v>1000</v>
       </c>
       <c r="H131" t="n">
-        <v>0.343</v>
+        <v>0.047</v>
       </c>
       <c r="I131" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.055</v>
+        <v>0.003</v>
       </c>
       <c r="L131" t="n">
-        <v>0.996</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="132">
@@ -5392,19 +5392,19 @@
         <v>1000</v>
       </c>
       <c r="H132" t="n">
-        <v>0.835</v>
+        <v>0.432</v>
       </c>
       <c r="I132" t="n">
-        <v>0.971</v>
+        <v>0.721</v>
       </c>
       <c r="J132" t="n">
-        <v>0.453</v>
+        <v>0.142</v>
       </c>
       <c r="K132" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.912</v>
+        <v>0.567</v>
       </c>
     </row>
     <row r="133">
@@ -5430,19 +5430,19 @@
         <v>1000</v>
       </c>
       <c r="H133" t="n">
-        <v>0.658</v>
+        <v>0.168</v>
       </c>
       <c r="I133" t="n">
-        <v>0.176</v>
+        <v>0.005</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0.176</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="134">
@@ -5468,7 +5468,7 @@
         <v>997</v>
       </c>
       <c r="H134" t="n">
-        <v>0.942828485456369</v>
+        <v>0.521564694082247</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -5477,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.306920762286861</v>
+        <v>0.0712136409227683</v>
       </c>
       <c r="L134" t="n">
-        <v>0.00100300902708124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5506,7 +5506,7 @@
         <v>997</v>
       </c>
       <c r="H135" t="n">
-        <v>0.952858575727182</v>
+        <v>0.552657973921765</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.323971915747242</v>
+        <v>0.0802407221664995</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>997</v>
       </c>
       <c r="H136" t="n">
-        <v>0.397191574724172</v>
+        <v>0.0852557673019057</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0.00501504513540622</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.385155466399198</v>
+        <v>0.163490471414243</v>
       </c>
     </row>
     <row r="137">
@@ -5582,7 +5582,7 @@
         <v>997</v>
       </c>
       <c r="H137" t="n">
-        <v>0.819458375125376</v>
+        <v>0.392176529588766</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0351053159478435</v>
+        <v>0.00100300902708124</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>1000</v>
       </c>
       <c r="H138" t="n">
-        <v>0.973</v>
+        <v>0.655</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.18</v>
+        <v>0.032</v>
       </c>
       <c r="L138" t="n">
-        <v>0.237</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="139">
@@ -5658,7 +5658,7 @@
         <v>1000</v>
       </c>
       <c r="H139" t="n">
-        <v>0.972</v>
+        <v>0.639</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -5667,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.179</v>
+        <v>0.032</v>
       </c>
       <c r="L139" t="n">
-        <v>0.154</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="140">
@@ -5696,19 +5696,19 @@
         <v>1000</v>
       </c>
       <c r="H140" t="n">
-        <v>0.632</v>
+        <v>0.153</v>
       </c>
       <c r="I140" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0.588</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="141">
@@ -5734,7 +5734,7 @@
         <v>1000</v>
       </c>
       <c r="H141" t="n">
-        <v>0.982</v>
+        <v>0.723</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1000</v>
       </c>
       <c r="H142" t="n">
-        <v>0.99</v>
+        <v>0.7</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -5781,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0.138</v>
+        <v>0.032</v>
       </c>
       <c r="L142" t="n">
-        <v>0.909</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="143">
@@ -5810,7 +5810,7 @@
         <v>1000</v>
       </c>
       <c r="H143" t="n">
-        <v>0.99</v>
+        <v>0.69</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -5819,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.137</v>
+        <v>0.032</v>
       </c>
       <c r="L143" t="n">
-        <v>0.856</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="144">
@@ -5848,19 +5848,19 @@
         <v>1000</v>
       </c>
       <c r="H144" t="n">
-        <v>0.838</v>
+        <v>0.332</v>
       </c>
       <c r="I144" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.688</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="145">
@@ -5886,7 +5886,7 @@
         <v>1000</v>
       </c>
       <c r="H145" t="n">
-        <v>0.997</v>
+        <v>0.815</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.032</v>
+        <v>0.004</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -5927,16 +5927,16 @@
         <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0.632</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0.961</v>
       </c>
       <c r="K146" t="n">
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="147">
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0.99</v>
+        <v>0.647</v>
       </c>
       <c r="K147" t="n">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>1000</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="149">
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="K149" t="n">
         <v>1</v>
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="151">
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="K151" t="n">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>1000</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="155">
@@ -6272,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="K155" t="n">
         <v>1</v>
@@ -6380,7 +6380,7 @@
         <v>1000</v>
       </c>
       <c r="H158" t="n">
-        <v>0.997</v>
+        <v>0.899</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="159">
@@ -6421,16 +6421,16 @@
         <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="J159" t="n">
-        <v>0.845</v>
+        <v>0.195</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="160">
@@ -6456,7 +6456,7 @@
         <v>1000</v>
       </c>
       <c r="H160" t="n">
-        <v>0.795</v>
+        <v>0.514</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -6497,16 +6497,16 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="162">
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>0.997</v>
+        <v>0.818</v>
       </c>
       <c r="K163" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
         <v>1000</v>
       </c>
       <c r="H164" t="n">
-        <v>0.974</v>
+        <v>0.899</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K165" t="n">
         <v>1</v>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0.969</v>
       </c>
       <c r="K167" t="n">
         <v>1</v>
@@ -6760,7 +6760,7 @@
         <v>1000</v>
       </c>
       <c r="H168" t="n">
-        <v>0.997</v>
+        <v>0.973</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -6836,13 +6836,13 @@
         <v>1000</v>
       </c>
       <c r="H170" t="n">
-        <v>0.743</v>
+        <v>0.468</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K170" t="n">
         <v>1</v>
@@ -6874,19 +6874,19 @@
         <v>1000</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I171" t="n">
-        <v>0.99</v>
+        <v>0.717</v>
       </c>
       <c r="J171" t="n">
-        <v>0.042</v>
+        <v>0.001</v>
       </c>
       <c r="K171" t="n">
         <v>1</v>
       </c>
       <c r="L171" t="n">
-        <v>0.99</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="172">
@@ -6912,19 +6912,19 @@
         <v>1000</v>
       </c>
       <c r="H172" t="n">
-        <v>0.224</v>
+        <v>0.129</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="J172" t="n">
-        <v>0.996</v>
+        <v>0.913</v>
       </c>
       <c r="K172" t="n">
         <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="173">
@@ -6950,19 +6950,19 @@
         <v>1000</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="J173" t="n">
-        <v>0.914</v>
+        <v>0.485</v>
       </c>
       <c r="K173" t="n">
         <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="174">
@@ -6988,7 +6988,7 @@
         <v>1000</v>
       </c>
       <c r="H174" t="n">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -7029,16 +7029,16 @@
         <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J175" t="n">
-        <v>0.656</v>
+        <v>0.125</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="176">
@@ -7064,13 +7064,13 @@
         <v>1000</v>
       </c>
       <c r="H176" t="n">
-        <v>0.823</v>
+        <v>0.662</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>0.999</v>
+        <v>0.95</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>0.953</v>
+        <v>0.445</v>
       </c>
       <c r="K179" t="n">
         <v>1</v>
@@ -7216,7 +7216,7 @@
         <v>1000</v>
       </c>
       <c r="H180" t="n">
-        <v>0.974</v>
+        <v>0.911</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="K181" t="n">
         <v>1</v>
@@ -7292,19 +7292,19 @@
         <v>1000</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I182" t="n">
-        <v>0.499</v>
+        <v>0.02</v>
       </c>
       <c r="J182" t="n">
-        <v>0.974</v>
+        <v>0.459</v>
       </c>
       <c r="K182" t="n">
-        <v>0.902</v>
+        <v>0.642</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="183">
@@ -7330,19 +7330,19 @@
         <v>1000</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="J183" t="n">
-        <v>0.641</v>
+        <v>0.099</v>
       </c>
       <c r="K183" t="n">
-        <v>0.963</v>
+        <v>0.866</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="184">
@@ -7368,19 +7368,19 @@
         <v>1000</v>
       </c>
       <c r="H184" t="n">
-        <v>0.457</v>
+        <v>0.209</v>
       </c>
       <c r="I184" t="n">
-        <v>0.998</v>
+        <v>0.793</v>
       </c>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>0.958</v>
       </c>
       <c r="K184" t="n">
-        <v>0.775</v>
+        <v>0.433</v>
       </c>
       <c r="L184" t="n">
-        <v>0.997</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="185">
@@ -7406,19 +7406,19 @@
         <v>1000</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0.958</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="J185" t="n">
-        <v>0.994</v>
+        <v>0.756</v>
       </c>
       <c r="K185" t="n">
-        <v>0.825</v>
+        <v>0.552</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="186">
@@ -7444,19 +7444,19 @@
         <v>1000</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I186" t="n">
-        <v>0.644</v>
+        <v>0.045</v>
       </c>
       <c r="J186" t="n">
-        <v>0.999</v>
+        <v>0.781</v>
       </c>
       <c r="K186" t="n">
-        <v>0.818</v>
+        <v>0.655</v>
       </c>
       <c r="L186" t="n">
-        <v>0.067</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="187">
@@ -7482,16 +7482,16 @@
         <v>1000</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>0.992</v>
+        <v>0.704</v>
       </c>
       <c r="K187" t="n">
-        <v>0.932</v>
+        <v>0.862</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7520,19 +7520,19 @@
         <v>1000</v>
       </c>
       <c r="H188" t="n">
-        <v>0.584</v>
+        <v>0.327</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>0.728</v>
+        <v>0.542</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="189">
@@ -7558,16 +7558,16 @@
         <v>1000</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="K189" t="n">
-        <v>0.778</v>
+        <v>0.632</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -7599,16 +7599,16 @@
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>0.742</v>
+        <v>0.051</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>0.872</v>
       </c>
       <c r="K190" t="n">
-        <v>0.74</v>
+        <v>0.597</v>
       </c>
       <c r="L190" t="n">
-        <v>0.098</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="191">
@@ -7634,16 +7634,16 @@
         <v>1000</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>0.999</v>
+        <v>0.929</v>
       </c>
       <c r="K191" t="n">
-        <v>0.9</v>
+        <v>0.828</v>
       </c>
       <c r="L191" t="n">
         <v>1</v>
@@ -7672,19 +7672,19 @@
         <v>1000</v>
       </c>
       <c r="H192" t="n">
-        <v>0.859</v>
+        <v>0.636</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0.941</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0.691</v>
+        <v>0.557</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="193">
@@ -7710,7 +7710,7 @@
         <v>1000</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>0.758</v>
+        <v>0.657</v>
       </c>
       <c r="L193" t="n">
         <v>1</v>
@@ -7748,19 +7748,19 @@
         <v>1000</v>
       </c>
       <c r="H194" t="n">
-        <v>0.963</v>
+        <v>0.758</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K194" t="n">
-        <v>0.975</v>
+        <v>0.88</v>
       </c>
       <c r="L194" t="n">
-        <v>0.99</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="195">
@@ -7789,16 +7789,16 @@
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>0.998</v>
+        <v>0.843</v>
       </c>
       <c r="J195" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>0.988</v>
+        <v>0.929</v>
       </c>
       <c r="L195" t="n">
-        <v>0.998</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="196">
@@ -7824,19 +7824,19 @@
         <v>1000</v>
       </c>
       <c r="H196" t="n">
-        <v>0.255</v>
+        <v>0.109</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="J196" t="n">
-        <v>0.988</v>
+        <v>0.846</v>
       </c>
       <c r="K196" t="n">
-        <v>0.826</v>
+        <v>0.578</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="197">
@@ -7862,19 +7862,19 @@
         <v>1000</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0.852</v>
       </c>
       <c r="J197" t="n">
-        <v>0.602</v>
+        <v>0.093</v>
       </c>
       <c r="K197" t="n">
-        <v>0.867</v>
+        <v>0.662</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="198">
@@ -7900,7 +7900,7 @@
         <v>1000</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -7909,10 +7909,10 @@
         <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>0.94</v>
+        <v>0.889</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="199">
@@ -7944,10 +7944,10 @@
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>0.452</v>
+        <v>0.05</v>
       </c>
       <c r="K199" t="n">
-        <v>0.959</v>
+        <v>0.927</v>
       </c>
       <c r="L199" t="n">
         <v>1</v>
@@ -7976,16 +7976,16 @@
         <v>1000</v>
       </c>
       <c r="H200" t="n">
-        <v>0.205</v>
+        <v>0.093</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="K200" t="n">
-        <v>0.829</v>
+        <v>0.709</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
@@ -8020,10 +8020,10 @@
         <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>0.996</v>
+        <v>0.767</v>
       </c>
       <c r="K201" t="n">
-        <v>0.848</v>
+        <v>0.739</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="K202" t="n">
-        <v>0.903</v>
+        <v>0.864</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
@@ -8096,10 +8096,10 @@
         <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>0.897</v>
+        <v>0.312</v>
       </c>
       <c r="K203" t="n">
-        <v>0.952</v>
+        <v>0.926</v>
       </c>
       <c r="L203" t="n">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>1000</v>
       </c>
       <c r="H204" t="n">
-        <v>0.335</v>
+        <v>0.214</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="K204" t="n">
-        <v>0.827</v>
+        <v>0.764</v>
       </c>
       <c r="L204" t="n">
         <v>1</v>
@@ -8172,10 +8172,10 @@
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>0.966</v>
       </c>
       <c r="K205" t="n">
-        <v>0.843</v>
+        <v>0.786</v>
       </c>
       <c r="L205" t="n">
         <v>1</v>
@@ -8204,16 +8204,16 @@
         <v>1000</v>
       </c>
       <c r="H206" t="n">
-        <v>0.7</v>
+        <v>0.398</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>0.984</v>
+        <v>0.644</v>
       </c>
       <c r="K206" t="n">
-        <v>0.986</v>
+        <v>0.952</v>
       </c>
       <c r="L206" t="n">
         <v>1</v>
@@ -8245,16 +8245,16 @@
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>0.1</v>
+        <v>0.003</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0.989</v>
+        <v>0.962</v>
       </c>
       <c r="L207" t="n">
-        <v>0.128</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="208">
@@ -8280,19 +8280,19 @@
         <v>1000</v>
       </c>
       <c r="H208" t="n">
-        <v>0.121</v>
+        <v>0.029</v>
       </c>
       <c r="I208" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="J208" t="n">
-        <v>0.375</v>
+        <v>0.056</v>
       </c>
       <c r="K208" t="n">
-        <v>0.864</v>
+        <v>0.695</v>
       </c>
       <c r="L208" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="209">
@@ -8318,19 +8318,19 @@
         <v>1000</v>
       </c>
       <c r="H209" t="n">
-        <v>0.997</v>
+        <v>0.924</v>
       </c>
       <c r="I209" t="n">
-        <v>0.239</v>
+        <v>0.011</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>0.891</v>
+        <v>0.746</v>
       </c>
       <c r="L209" t="n">
-        <v>0.239</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="210">
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>0.983</v>
+        <v>0.962</v>
       </c>
       <c r="L210" t="n">
         <v>1</v>
@@ -8397,16 +8397,16 @@
         <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>0.994</v>
+        <v>0.791</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>0.984</v>
+        <v>0.966</v>
       </c>
       <c r="L211" t="n">
-        <v>0.994</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="212">
@@ -8432,16 +8432,16 @@
         <v>1000</v>
       </c>
       <c r="H212" t="n">
-        <v>0.437</v>
+        <v>0.265</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>0.838</v>
+        <v>0.45</v>
       </c>
       <c r="K212" t="n">
-        <v>0.887</v>
+        <v>0.813</v>
       </c>
       <c r="L212" t="n">
         <v>1</v>
@@ -8473,16 +8473,16 @@
         <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>0.998</v>
+        <v>0.877</v>
       </c>
       <c r="J213" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>0.898</v>
+        <v>0.831</v>
       </c>
       <c r="L213" t="n">
-        <v>0.998</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="214">
@@ -8517,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="K214" t="n">
-        <v>0.968</v>
+        <v>0.951</v>
       </c>
       <c r="L214" t="n">
         <v>1</v>
@@ -8549,16 +8549,16 @@
         <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>0.975</v>
+        <v>0.961</v>
       </c>
       <c r="L215" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="216">
@@ -8584,16 +8584,16 @@
         <v>1000</v>
       </c>
       <c r="H216" t="n">
-        <v>0.692</v>
+        <v>0.532</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>0.959</v>
+        <v>0.752</v>
       </c>
       <c r="K216" t="n">
-        <v>0.904</v>
+        <v>0.861</v>
       </c>
       <c r="L216" t="n">
         <v>1</v>
@@ -8625,16 +8625,16 @@
         <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="J217" t="n">
-        <v>0.231</v>
+        <v>0.021</v>
       </c>
       <c r="K217" t="n">
-        <v>0.913</v>
+        <v>0.872</v>
       </c>
       <c r="L217" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="218">
@@ -8660,16 +8660,16 @@
         <v>1000</v>
       </c>
       <c r="H218" t="n">
-        <v>0.996</v>
+        <v>0.886</v>
       </c>
       <c r="I218" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>0.797</v>
+        <v>0.152</v>
       </c>
       <c r="K218" t="n">
-        <v>0.635</v>
+        <v>0.259</v>
       </c>
       <c r="L218" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>1000</v>
       </c>
       <c r="H219" t="n">
-        <v>0.997</v>
+        <v>0.876</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="J219" t="n">
-        <v>0.112</v>
+        <v>0.006</v>
       </c>
       <c r="K219" t="n">
-        <v>0.867</v>
+        <v>0.594</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="220">
@@ -8736,19 +8736,19 @@
         <v>1000</v>
       </c>
       <c r="H220" t="n">
-        <v>0.374</v>
+        <v>0.155</v>
       </c>
       <c r="I220" t="n">
-        <v>0.893</v>
+        <v>0.352</v>
       </c>
       <c r="J220" t="n">
-        <v>0.992</v>
+        <v>0.759</v>
       </c>
       <c r="K220" t="n">
-        <v>0.301</v>
+        <v>0.06</v>
       </c>
       <c r="L220" t="n">
-        <v>0.886</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="221">
@@ -8774,19 +8774,19 @@
         <v>1000</v>
       </c>
       <c r="H221" t="n">
-        <v>0.991</v>
+        <v>0.706</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>0.929</v>
       </c>
       <c r="J221" t="n">
-        <v>0.942</v>
+        <v>0.356</v>
       </c>
       <c r="K221" t="n">
-        <v>0.481</v>
+        <v>0.166</v>
       </c>
       <c r="L221" t="n">
-        <v>1</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="222">
@@ -8815,13 +8815,13 @@
         <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.958</v>
+        <v>0.408</v>
       </c>
       <c r="K222" t="n">
-        <v>0.456</v>
+        <v>0.23</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -8850,16 +8850,16 @@
         <v>1000</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0.963</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>0.852</v>
+        <v>0.265</v>
       </c>
       <c r="K223" t="n">
-        <v>0.712</v>
+        <v>0.564</v>
       </c>
       <c r="L223" t="n">
         <v>1</v>
@@ -8888,19 +8888,19 @@
         <v>1000</v>
       </c>
       <c r="H224" t="n">
-        <v>0.148</v>
+        <v>0.064</v>
       </c>
       <c r="I224" t="n">
-        <v>0.997</v>
+        <v>0.801</v>
       </c>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="K224" t="n">
-        <v>0.292</v>
+        <v>0.132</v>
       </c>
       <c r="L224" t="n">
-        <v>0.997</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="225">
@@ -8926,19 +8926,19 @@
         <v>1000</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0.941</v>
       </c>
       <c r="K225" t="n">
-        <v>0.365</v>
+        <v>0.213</v>
       </c>
       <c r="L225" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="226">
@@ -8967,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="I226" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.992</v>
+        <v>0.594</v>
       </c>
       <c r="K226" t="n">
-        <v>0.273</v>
+        <v>0.175</v>
       </c>
       <c r="L226" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>1000</v>
       </c>
       <c r="H227" t="n">
-        <v>0.998</v>
+        <v>0.97</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
       </c>
       <c r="J227" t="n">
-        <v>0.996</v>
+        <v>0.68</v>
       </c>
       <c r="K227" t="n">
-        <v>0.562</v>
+        <v>0.475</v>
       </c>
       <c r="L227" t="n">
         <v>1</v>
@@ -9040,19 +9040,19 @@
         <v>1000</v>
       </c>
       <c r="H228" t="n">
-        <v>0.19</v>
+        <v>0.096</v>
       </c>
       <c r="I228" t="n">
-        <v>0.998</v>
+        <v>0.866</v>
       </c>
       <c r="J228" t="n">
         <v>1</v>
       </c>
       <c r="K228" t="n">
-        <v>0.242</v>
+        <v>0.163</v>
       </c>
       <c r="L228" t="n">
-        <v>0.998</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="229">
@@ -9078,16 +9078,16 @@
         <v>1000</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K229" t="n">
-        <v>0.316</v>
+        <v>0.238</v>
       </c>
       <c r="L229" t="n">
         <v>1</v>
@@ -9116,19 +9116,19 @@
         <v>1000</v>
       </c>
       <c r="H230" t="n">
-        <v>0.866</v>
+        <v>0.566</v>
       </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>0.929</v>
       </c>
       <c r="J230" t="n">
         <v>1</v>
       </c>
       <c r="K230" t="n">
-        <v>0.903</v>
+        <v>0.642</v>
       </c>
       <c r="L230" t="n">
-        <v>0.858</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="231">
@@ -9154,19 +9154,19 @@
         <v>1000</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I231" t="n">
-        <v>0.872</v>
+        <v>0.335</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>0.947</v>
+        <v>0.78</v>
       </c>
       <c r="L231" t="n">
-        <v>0.89</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="232">
@@ -9192,19 +9192,19 @@
         <v>1000</v>
       </c>
       <c r="H232" t="n">
-        <v>0.181</v>
+        <v>0.052</v>
       </c>
       <c r="I232" t="n">
-        <v>0.995</v>
+        <v>0.929</v>
       </c>
       <c r="J232" t="n">
-        <v>0.868</v>
+        <v>0.55</v>
       </c>
       <c r="K232" t="n">
-        <v>0.456</v>
+        <v>0.163</v>
       </c>
       <c r="L232" t="n">
-        <v>0.995</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="233">
@@ -9230,19 +9230,19 @@
         <v>1000</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0.964</v>
       </c>
       <c r="I233" t="n">
-        <v>0.867</v>
+        <v>0.308</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>0.593</v>
+        <v>0.283</v>
       </c>
       <c r="L233" t="n">
-        <v>0.867</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="234">
@@ -9268,19 +9268,19 @@
         <v>1000</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="I234" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="J234" t="n">
         <v>1</v>
       </c>
       <c r="K234" t="n">
-        <v>0.78</v>
+        <v>0.634</v>
       </c>
       <c r="L234" t="n">
-        <v>0.999</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="235">
@@ -9309,16 +9309,16 @@
         <v>1</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="J235" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>0.866</v>
+        <v>0.774</v>
       </c>
       <c r="L235" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="236">
@@ -9344,16 +9344,16 @@
         <v>1000</v>
       </c>
       <c r="H236" t="n">
-        <v>0.138</v>
+        <v>0.051</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
       </c>
       <c r="J236" t="n">
-        <v>0.992</v>
+        <v>0.891</v>
       </c>
       <c r="K236" t="n">
-        <v>0.42</v>
+        <v>0.268</v>
       </c>
       <c r="L236" t="n">
         <v>1</v>
@@ -9385,16 +9385,16 @@
         <v>1</v>
       </c>
       <c r="I237" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="J237" t="n">
-        <v>0.564</v>
+        <v>0.08</v>
       </c>
       <c r="K237" t="n">
-        <v>0.488</v>
+        <v>0.331</v>
       </c>
       <c r="L237" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="238">
@@ -9429,10 +9429,10 @@
         <v>1</v>
       </c>
       <c r="K238" t="n">
-        <v>0.601</v>
+        <v>0.529</v>
       </c>
       <c r="L238" t="n">
-        <v>1</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="239">
@@ -9464,10 +9464,10 @@
         <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>0.087</v>
+        <v>0.002</v>
       </c>
       <c r="K239" t="n">
-        <v>0.72</v>
+        <v>0.672</v>
       </c>
       <c r="L239" t="n">
         <v>1</v>
@@ -9496,16 +9496,16 @@
         <v>1000</v>
       </c>
       <c r="H240" t="n">
-        <v>0.208</v>
+        <v>0.105</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
       </c>
       <c r="J240" t="n">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="K240" t="n">
-        <v>0.379</v>
+        <v>0.312</v>
       </c>
       <c r="L240" t="n">
         <v>1</v>
@@ -9540,10 +9540,10 @@
         <v>1</v>
       </c>
       <c r="J241" t="n">
-        <v>0.943</v>
+        <v>0.413</v>
       </c>
       <c r="K241" t="n">
-        <v>0.419</v>
+        <v>0.359</v>
       </c>
       <c r="L241" t="n">
         <v>1</v>
@@ -9572,16 +9572,16 @@
         <v>1000</v>
       </c>
       <c r="H242" t="n">
-        <v>0.633</v>
+        <v>0.321</v>
       </c>
       <c r="I242" t="n">
-        <v>0.995</v>
+        <v>0.802</v>
       </c>
       <c r="J242" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>0.976</v>
+        <v>0.85</v>
       </c>
       <c r="L242" t="n">
         <v>1</v>
@@ -9610,7 +9610,7 @@
         <v>1000</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -9619,10 +9619,10 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>0.979</v>
+        <v>0.888</v>
       </c>
       <c r="L243" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -9648,19 +9648,19 @@
         <v>1000</v>
       </c>
       <c r="H244" t="n">
-        <v>0.13</v>
+        <v>0.022</v>
       </c>
       <c r="I244" t="n">
-        <v>0.462</v>
+        <v>0.12</v>
       </c>
       <c r="J244" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>0.597</v>
+        <v>0.293</v>
       </c>
       <c r="L244" t="n">
-        <v>0.462</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="245">
@@ -9686,7 +9686,7 @@
         <v>1000</v>
       </c>
       <c r="H245" t="n">
-        <v>0.939</v>
+        <v>0.675</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>0.692</v>
+        <v>0.398</v>
       </c>
       <c r="L245" t="n">
         <v>0</v>
@@ -9730,10 +9730,10 @@
         <v>1</v>
       </c>
       <c r="J246" t="n">
-        <v>0.997</v>
+        <v>0.836</v>
       </c>
       <c r="K246" t="n">
-        <v>0.912</v>
+        <v>0.867</v>
       </c>
       <c r="L246" t="n">
         <v>1</v>
@@ -9765,16 +9765,16 @@
         <v>1</v>
       </c>
       <c r="I247" t="n">
-        <v>0.223</v>
+        <v>0.019</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>0.934</v>
+        <v>0.901</v>
       </c>
       <c r="L247" t="n">
-        <v>0.8</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="248">
@@ -9800,19 +9800,19 @@
         <v>1000</v>
       </c>
       <c r="H248" t="n">
-        <v>0.691</v>
+        <v>0.469</v>
       </c>
       <c r="I248" t="n">
-        <v>0.975</v>
+        <v>0.817</v>
       </c>
       <c r="J248" t="n">
-        <v>0.146</v>
+        <v>0.022</v>
       </c>
       <c r="K248" t="n">
-        <v>0.539</v>
+        <v>0.439</v>
       </c>
       <c r="L248" t="n">
-        <v>0.975</v>
+        <v>0.817</v>
       </c>
     </row>
     <row r="249">
@@ -9841,16 +9841,16 @@
         <v>1</v>
       </c>
       <c r="I249" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>0.59</v>
+        <v>0.503</v>
       </c>
       <c r="L249" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="250">
@@ -9882,10 +9882,10 @@
         <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="K250" t="n">
-        <v>0.822</v>
+        <v>0.788</v>
       </c>
       <c r="L250" t="n">
         <v>1</v>
@@ -9917,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="I251" t="n">
-        <v>0.914</v>
+        <v>0.404</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>0.844</v>
+        <v>0.817</v>
       </c>
       <c r="L251" t="n">
-        <v>0.989</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="252">
@@ -9952,19 +9952,19 @@
         <v>1000</v>
       </c>
       <c r="H252" t="n">
-        <v>0.933</v>
+        <v>0.831</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="J252" t="n">
-        <v>0.397</v>
+        <v>0.093</v>
       </c>
       <c r="K252" t="n">
-        <v>0.528</v>
+        <v>0.478</v>
       </c>
       <c r="L252" t="n">
-        <v>1</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="253">
@@ -9993,16 +9993,16 @@
         <v>1</v>
       </c>
       <c r="I253" t="n">
-        <v>0.947</v>
+        <v>0.473</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>0.571</v>
+        <v>0.525</v>
       </c>
       <c r="L253" t="n">
-        <v>0.947</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="254">
@@ -10028,16 +10028,16 @@
         <v>1000</v>
       </c>
       <c r="H254" t="n">
-        <v>0.836</v>
+        <v>0.471</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>0.152</v>
+        <v>0.006</v>
       </c>
       <c r="K254" t="n">
-        <v>0.027</v>
+        <v>0.001</v>
       </c>
       <c r="L254" t="n">
         <v>0</v>
@@ -10066,19 +10066,19 @@
         <v>1000</v>
       </c>
       <c r="H255" t="n">
-        <v>0.546</v>
+        <v>0.134</v>
       </c>
       <c r="I255" t="n">
-        <v>0.999</v>
+        <v>0.862</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>0.209</v>
+        <v>0.031</v>
       </c>
       <c r="L255" t="n">
-        <v>0.998</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="256">
@@ -10104,19 +10104,19 @@
         <v>1000</v>
       </c>
       <c r="H256" t="n">
-        <v>0.408</v>
+        <v>0.173</v>
       </c>
       <c r="I256" t="n">
-        <v>0.145</v>
+        <v>0.017</v>
       </c>
       <c r="J256" t="n">
-        <v>0.682</v>
+        <v>0.227</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>0.144</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="257">
@@ -10142,19 +10142,19 @@
         <v>1000</v>
       </c>
       <c r="H257" t="n">
-        <v>0.452</v>
+        <v>0.058</v>
       </c>
       <c r="I257" t="n">
-        <v>0.991</v>
+        <v>0.576</v>
       </c>
       <c r="J257" t="n">
-        <v>0.341</v>
+        <v>0.01</v>
       </c>
       <c r="K257" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
-        <v>0.991</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="258">
@@ -10180,16 +10180,16 @@
         <v>1000</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>0.451</v>
+        <v>0.021</v>
       </c>
       <c r="K258" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="L258" t="n">
         <v>0</v>
@@ -10218,19 +10218,19 @@
         <v>1000</v>
       </c>
       <c r="H259" t="n">
-        <v>0.75</v>
+        <v>0.287</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="J259" t="n">
-        <v>0.043</v>
+        <v>0.001</v>
       </c>
       <c r="K259" t="n">
-        <v>0.067</v>
+        <v>0.023</v>
       </c>
       <c r="L259" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="260">
@@ -10256,19 +10256,19 @@
         <v>1000</v>
       </c>
       <c r="H260" t="n">
-        <v>0.091</v>
+        <v>0.027</v>
       </c>
       <c r="I260" t="n">
-        <v>0.633</v>
+        <v>0.138</v>
       </c>
       <c r="J260" t="n">
-        <v>0.996</v>
+        <v>0.847</v>
       </c>
       <c r="K260" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
-        <v>0.633</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="261">
@@ -10294,19 +10294,19 @@
         <v>1000</v>
       </c>
       <c r="H261" t="n">
-        <v>0.733</v>
+        <v>0.209</v>
       </c>
       <c r="I261" t="n">
-        <v>0.999</v>
+        <v>0.881</v>
       </c>
       <c r="J261" t="n">
-        <v>0.914</v>
+        <v>0.302</v>
       </c>
       <c r="K261" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>0.999</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="262">
@@ -10332,13 +10332,13 @@
         <v>1000</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>0.622</v>
+        <v>0.082</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -10370,19 +10370,19 @@
         <v>1000</v>
       </c>
       <c r="H263" t="n">
-        <v>0.811</v>
+        <v>0.372</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="J263" t="n">
-        <v>0.346</v>
+        <v>0.02</v>
       </c>
       <c r="K263" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="L263" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="264">
@@ -10408,19 +10408,19 @@
         <v>1000</v>
       </c>
       <c r="H264" t="n">
-        <v>0.042</v>
+        <v>0.012</v>
       </c>
       <c r="I264" t="n">
-        <v>0.89</v>
+        <v>0.363</v>
       </c>
       <c r="J264" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K264" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
-        <v>0.89</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="265">
@@ -10446,19 +10446,19 @@
         <v>1000</v>
       </c>
       <c r="H265" t="n">
-        <v>0.891</v>
+        <v>0.405</v>
       </c>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>0.963</v>
       </c>
       <c r="J265" t="n">
-        <v>0.992</v>
+        <v>0.685</v>
       </c>
       <c r="K265" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
-        <v>1</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="266">
@@ -10484,19 +10484,19 @@
         <v>1000</v>
       </c>
       <c r="H266" t="n">
-        <v>0.512</v>
+        <v>0.204</v>
       </c>
       <c r="I266" t="n">
-        <v>0.997</v>
+        <v>0.86</v>
       </c>
       <c r="J266" t="n">
-        <v>0.973</v>
+        <v>0.517</v>
       </c>
       <c r="K266" t="n">
-        <v>0.347</v>
+        <v>0.067</v>
       </c>
       <c r="L266" t="n">
-        <v>0.117</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="267">
@@ -10522,19 +10522,19 @@
         <v>1000</v>
       </c>
       <c r="H267" t="n">
-        <v>0.996</v>
+        <v>0.904</v>
       </c>
       <c r="I267" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>0.536</v>
+        <v>0.158</v>
       </c>
       <c r="L267" t="n">
-        <v>0.356</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="268">
@@ -10560,19 +10560,19 @@
         <v>1000</v>
       </c>
       <c r="H268" t="n">
-        <v>0.23</v>
+        <v>0.084</v>
       </c>
       <c r="I268" t="n">
-        <v>0.919</v>
+        <v>0.575</v>
       </c>
       <c r="J268" t="n">
-        <v>0.445</v>
+        <v>0.15</v>
       </c>
       <c r="K268" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
-        <v>0.914</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="269">
@@ -10598,19 +10598,19 @@
         <v>1000</v>
       </c>
       <c r="H269" t="n">
-        <v>0.986</v>
+        <v>0.723</v>
       </c>
       <c r="I269" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
       </c>
       <c r="K269" t="n">
-        <v>0.036</v>
+        <v>0.001</v>
       </c>
       <c r="L269" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -10636,19 +10636,19 @@
         <v>1000</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="J270" t="n">
         <v>1</v>
       </c>
       <c r="K270" t="n">
-        <v>0.113</v>
+        <v>0.043</v>
       </c>
       <c r="L270" t="n">
-        <v>0.6</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="271">
@@ -10674,19 +10674,19 @@
         <v>1000</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="I271" t="n">
-        <v>0.936</v>
+        <v>0.381</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
       </c>
       <c r="K271" t="n">
-        <v>0.201</v>
+        <v>0.1</v>
       </c>
       <c r="L271" t="n">
-        <v>0.996</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="272">
@@ -10712,19 +10712,19 @@
         <v>1000</v>
       </c>
       <c r="H272" t="n">
-        <v>0.334</v>
+        <v>0.161</v>
       </c>
       <c r="I272" t="n">
-        <v>0.999</v>
+        <v>0.972</v>
       </c>
       <c r="J272" t="n">
-        <v>0.673</v>
+        <v>0.298</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
       </c>
       <c r="L272" t="n">
-        <v>0.999</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="273">
@@ -10750,19 +10750,19 @@
         <v>1000</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="I273" t="n">
-        <v>0.919</v>
+        <v>0.369</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="L273" t="n">
-        <v>0.919</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="274">
@@ -10791,16 +10791,16 @@
         <v>1</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="J274" t="n">
         <v>1</v>
       </c>
       <c r="K274" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="L274" t="n">
-        <v>0.881</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="275">
@@ -10826,19 +10826,19 @@
         <v>1000</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0.944</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>0.043</v>
+        <v>0.023</v>
       </c>
       <c r="L275" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="276">
@@ -10864,13 +10864,13 @@
         <v>1000</v>
       </c>
       <c r="H276" t="n">
-        <v>0.469</v>
+        <v>0.272</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>0.844</v>
+        <v>0.511</v>
       </c>
       <c r="K276" t="n">
         <v>0.001</v>
@@ -10902,10 +10902,10 @@
         <v>1000</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0.939</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0.002</v>
       </c>
       <c r="L277" t="n">
-        <v>1</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="278">
@@ -10940,7 +10940,7 @@
         <v>1000</v>
       </c>
       <c r="H278" t="n">
-        <v>0.575</v>
+        <v>0.258</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -10949,10 +10949,10 @@
         <v>0</v>
       </c>
       <c r="K278" t="n">
-        <v>0.722</v>
+        <v>0.324</v>
       </c>
       <c r="L278" t="n">
-        <v>0.996</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="279">
@@ -10978,7 +10978,7 @@
         <v>1000</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>0.776</v>
+        <v>0.378</v>
       </c>
       <c r="L279" t="n">
         <v>0</v>
@@ -11016,19 +11016,19 @@
         <v>1000</v>
       </c>
       <c r="H280" t="n">
-        <v>0.239</v>
+        <v>0.077</v>
       </c>
       <c r="I280" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
       </c>
       <c r="K280" t="n">
-        <v>0.026</v>
+        <v>0.001</v>
       </c>
       <c r="L280" t="n">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="281">
@@ -11054,7 +11054,7 @@
         <v>1000</v>
       </c>
       <c r="H281" t="n">
-        <v>0.479</v>
+        <v>0.123</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="K281" t="n">
-        <v>0.075</v>
+        <v>0.009</v>
       </c>
       <c r="L281" t="n">
         <v>0</v>
@@ -11095,13 +11095,13 @@
         <v>1</v>
       </c>
       <c r="I282" t="n">
-        <v>0.64</v>
+        <v>0.094</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>0.337</v>
+        <v>0.204</v>
       </c>
       <c r="L282" t="n">
         <v>1</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>0.372</v>
+        <v>0.237</v>
       </c>
       <c r="L283" t="n">
-        <v>0.562</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="284">
@@ -11168,19 +11168,19 @@
         <v>1000</v>
       </c>
       <c r="H284" t="n">
-        <v>0.965</v>
+        <v>0.899</v>
       </c>
       <c r="I284" t="n">
-        <v>0.119</v>
+        <v>0.01</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="L284" t="n">
-        <v>0.119</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="285">
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>0.028</v>
+        <v>0.007</v>
       </c>
       <c r="L285" t="n">
         <v>0</v>
@@ -11247,13 +11247,13 @@
         <v>1</v>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0.953</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
       </c>
       <c r="K286" t="n">
-        <v>0.072</v>
+        <v>0.054</v>
       </c>
       <c r="L286" t="n">
         <v>1</v>
@@ -11291,10 +11291,10 @@
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>0.094</v>
+        <v>0.074</v>
       </c>
       <c r="L287" t="n">
-        <v>0.989</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="288">
@@ -11323,16 +11323,16 @@
         <v>0.999</v>
       </c>
       <c r="I288" t="n">
-        <v>0.469</v>
+        <v>0.142</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="L288" t="n">
-        <v>0.469</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="289">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>0.013</v>
+        <v>0.009</v>
       </c>
       <c r="L289" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0.719</v>
       </c>
       <c r="J290" t="n">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="n">
-        <v>1</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="291">
@@ -11440,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="n">
-        <v>1</v>
+        <v>0.936</v>
       </c>
       <c r="K291" t="n">
         <v>1</v>
@@ -11551,7 +11551,7 @@
         <v>1</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J294" t="n">
         <v>1</v>
@@ -11560,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="n">
-        <v>1</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="295">
@@ -11852,7 +11852,7 @@
         <v>1000</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -11896,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="J303" t="n">
-        <v>0.99</v>
+        <v>0.708</v>
       </c>
       <c r="K303" t="n">
         <v>1</v>
@@ -11928,7 +11928,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="n">
-        <v>0.991</v>
+        <v>0.915</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>1000</v>
       </c>
       <c r="H314" t="n">
-        <v>0.987</v>
+        <v>0.849</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -12352,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="J315" t="n">
-        <v>0.478</v>
+        <v>0.06</v>
       </c>
       <c r="K315" t="n">
         <v>1</v>
@@ -12384,7 +12384,7 @@
         <v>1000</v>
       </c>
       <c r="H316" t="n">
-        <v>0.483</v>
+        <v>0.257</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -12460,7 +12460,7 @@
         <v>1000</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="J319" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="K319" t="n">
         <v>1</v>
@@ -12536,7 +12536,7 @@
         <v>1000</v>
       </c>
       <c r="H320" t="n">
-        <v>0.996</v>
+        <v>0.954</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>1000</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -12767,16 +12767,16 @@
         <v>1</v>
       </c>
       <c r="I326" t="n">
-        <v>0.084</v>
+        <v>0</v>
       </c>
       <c r="J326" t="n">
-        <v>0.997</v>
+        <v>0.65</v>
       </c>
       <c r="K326" t="n">
-        <v>0.993</v>
+        <v>0.962</v>
       </c>
       <c r="L326" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="J327" t="n">
-        <v>0.981</v>
+        <v>0.604</v>
       </c>
       <c r="K327" t="n">
         <v>0.999</v>
@@ -12840,19 +12840,19 @@
         <v>1000</v>
       </c>
       <c r="H328" t="n">
-        <v>0.708</v>
+        <v>0.296</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J328" t="n">
         <v>1</v>
       </c>
       <c r="K328" t="n">
-        <v>0.734</v>
+        <v>0.65</v>
       </c>
       <c r="L328" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="329">
@@ -12887,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="K329" t="n">
-        <v>0.82</v>
+        <v>0.759</v>
       </c>
       <c r="L329" t="n">
         <v>1</v>
@@ -12919,16 +12919,16 @@
         <v>1</v>
       </c>
       <c r="I330" t="n">
-        <v>0.292</v>
+        <v>0.001</v>
       </c>
       <c r="J330" t="n">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="K330" t="n">
-        <v>0.93</v>
+        <v>0.919</v>
       </c>
       <c r="L330" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -12963,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="K331" t="n">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
       <c r="L331" t="n">
         <v>1</v>
@@ -12992,19 +12992,19 @@
         <v>1000</v>
       </c>
       <c r="H332" t="n">
-        <v>0.999</v>
+        <v>0.974</v>
       </c>
       <c r="I332" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="J332" t="n">
         <v>1</v>
       </c>
       <c r="K332" t="n">
-        <v>0.734</v>
+        <v>0.718</v>
       </c>
       <c r="L332" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="333">
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="K333" t="n">
-        <v>0.873</v>
+        <v>0.866</v>
       </c>
       <c r="L333" t="n">
         <v>1</v>
@@ -13071,16 +13071,16 @@
         <v>1</v>
       </c>
       <c r="I334" t="n">
-        <v>0.39</v>
+        <v>0.006</v>
       </c>
       <c r="J334" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="K334" t="n">
-        <v>0.818</v>
+        <v>0.814</v>
       </c>
       <c r="L334" t="n">
-        <v>0.212</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="335">
@@ -13144,7 +13144,7 @@
         <v>1000</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -13153,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="K336" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="L336" t="n">
         <v>1</v>
@@ -13191,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="K337" t="n">
-        <v>0.868</v>
+        <v>0.865</v>
       </c>
       <c r="L337" t="n">
         <v>1</v>
@@ -13220,7 +13220,7 @@
         <v>1000</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="J339" t="n">
-        <v>0.356</v>
+        <v>0.027</v>
       </c>
       <c r="K339" t="n">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>1000</v>
       </c>
       <c r="H340" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="K340" t="n">
-        <v>0.914</v>
+        <v>0.883</v>
       </c>
       <c r="L340" t="n">
         <v>1</v>
@@ -13340,10 +13340,10 @@
         <v>1</v>
       </c>
       <c r="J341" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="K341" t="n">
-        <v>0.929</v>
+        <v>0.906</v>
       </c>
       <c r="L341" t="n">
         <v>1</v>
@@ -13416,7 +13416,7 @@
         <v>1</v>
       </c>
       <c r="J343" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
       <c r="K343" t="n">
         <v>1</v>
@@ -13448,7 +13448,7 @@
         <v>1000</v>
       </c>
       <c r="H344" t="n">
-        <v>0.751</v>
+        <v>0.465</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="K344" t="n">
-        <v>0.943</v>
+        <v>0.941</v>
       </c>
       <c r="L344" t="n">
         <v>1</v>
@@ -13495,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="K345" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="L345" t="n">
         <v>1</v>
@@ -13600,7 +13600,7 @@
         <v>1000</v>
       </c>
       <c r="H348" t="n">
-        <v>0.994</v>
+        <v>0.935</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -13676,7 +13676,7 @@
         <v>1000</v>
       </c>
       <c r="H350" t="n">
-        <v>0.993</v>
+        <v>0.924</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -13758,10 +13758,10 @@
         <v>1</v>
       </c>
       <c r="J352" t="n">
-        <v>0.993</v>
+        <v>0.914</v>
       </c>
       <c r="K352" t="n">
-        <v>0.956</v>
+        <v>0.942</v>
       </c>
       <c r="L352" t="n">
         <v>1</v>
@@ -13793,16 +13793,16 @@
         <v>1</v>
       </c>
       <c r="I353" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J353" t="n">
-        <v>0.612</v>
+        <v>0.105</v>
       </c>
       <c r="K353" t="n">
-        <v>0.962</v>
+        <v>0.951</v>
       </c>
       <c r="L353" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="354">
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="J355" t="n">
-        <v>0.443</v>
+        <v>0.054</v>
       </c>
       <c r="K355" t="n">
         <v>1</v>
@@ -13904,7 +13904,7 @@
         <v>1000</v>
       </c>
       <c r="H356" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="J357" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K357" t="n">
         <v>0.983</v>
@@ -14024,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="J359" t="n">
-        <v>0.996</v>
+        <v>0.817</v>
       </c>
       <c r="K359" t="n">
         <v>1</v>
@@ -14056,7 +14056,7 @@
         <v>1000</v>
       </c>
       <c r="H360" t="n">
-        <v>0.857</v>
+        <v>0.631</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -14138,10 +14138,10 @@
         <v>0</v>
       </c>
       <c r="J362" t="n">
-        <v>0.926</v>
+        <v>0.271</v>
       </c>
       <c r="K362" t="n">
-        <v>0.908</v>
+        <v>0.836</v>
       </c>
       <c r="L362" t="n">
         <v>0</v>
@@ -14176,10 +14176,10 @@
         <v>1</v>
       </c>
       <c r="J363" t="n">
-        <v>0.783</v>
+        <v>0.196</v>
       </c>
       <c r="K363" t="n">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="L363" t="n">
         <v>1</v>
@@ -14208,19 +14208,19 @@
         <v>1000</v>
       </c>
       <c r="H364" t="n">
-        <v>0.016</v>
+        <v>0.007</v>
       </c>
       <c r="I364" t="n">
-        <v>1</v>
+        <v>0.963</v>
       </c>
       <c r="J364" t="n">
         <v>1</v>
       </c>
       <c r="K364" t="n">
-        <v>0.281</v>
+        <v>0.201</v>
       </c>
       <c r="L364" t="n">
-        <v>1</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="365">
@@ -14252,10 +14252,10 @@
         <v>1</v>
       </c>
       <c r="J365" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K365" t="n">
-        <v>0.373</v>
+        <v>0.304</v>
       </c>
       <c r="L365" t="n">
         <v>1</v>
@@ -14287,13 +14287,13 @@
         <v>1</v>
       </c>
       <c r="I366" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="J366" t="n">
-        <v>1</v>
+        <v>0.902</v>
       </c>
       <c r="K366" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="L366" t="n">
         <v>0</v>
@@ -14328,10 +14328,10 @@
         <v>1</v>
       </c>
       <c r="J367" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K367" t="n">
-        <v>0.858</v>
+        <v>0.857</v>
       </c>
       <c r="L367" t="n">
         <v>1</v>
@@ -14360,19 +14360,19 @@
         <v>1000</v>
       </c>
       <c r="H368" t="n">
-        <v>0.906</v>
+        <v>0.634</v>
       </c>
       <c r="I368" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="J368" t="n">
         <v>1</v>
       </c>
       <c r="K368" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="L368" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="369">
@@ -14439,10 +14439,10 @@
         <v>1</v>
       </c>
       <c r="I370" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J370" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="K370" t="n">
         <v>0.079</v>
@@ -14512,10 +14512,10 @@
         <v>1000</v>
       </c>
       <c r="H372" t="n">
-        <v>0.999</v>
+        <v>0.96</v>
       </c>
       <c r="I372" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="J372" t="n">
         <v>1</v>
@@ -14524,7 +14524,7 @@
         <v>0.038</v>
       </c>
       <c r="L372" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="373">
@@ -14588,7 +14588,7 @@
         <v>1000</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -14597,10 +14597,10 @@
         <v>1</v>
       </c>
       <c r="K374" t="n">
-        <v>0.999</v>
+        <v>0.998</v>
       </c>
       <c r="L374" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="375">
@@ -14632,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="J375" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K375" t="n">
         <v>1</v>
@@ -14670,10 +14670,10 @@
         <v>1</v>
       </c>
       <c r="J376" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="K376" t="n">
-        <v>0.479</v>
+        <v>0.432</v>
       </c>
       <c r="L376" t="n">
         <v>1</v>
@@ -14708,10 +14708,10 @@
         <v>1</v>
       </c>
       <c r="J377" t="n">
-        <v>0.982</v>
+        <v>0.624</v>
       </c>
       <c r="K377" t="n">
-        <v>0.518</v>
+        <v>0.478</v>
       </c>
       <c r="L377" t="n">
         <v>1</v>
@@ -14784,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="J379" t="n">
-        <v>0.991</v>
+        <v>0.7</v>
       </c>
       <c r="K379" t="n">
         <v>0.978</v>
@@ -14816,7 +14816,7 @@
         <v>1000</v>
       </c>
       <c r="H380" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -14936,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="J383" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="K383" t="n">
         <v>0.845</v>
@@ -14968,7 +14968,7 @@
         <v>1000</v>
       </c>
       <c r="H384" t="n">
-        <v>0.718</v>
+        <v>0.422</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -15044,7 +15044,7 @@
         <v>1000</v>
       </c>
       <c r="H386" t="n">
-        <v>0.992</v>
+        <v>0.899</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="I387" t="n">
-        <v>0.999</v>
+        <v>0.948</v>
       </c>
       <c r="J387" t="n">
         <v>0</v>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="L387" t="n">
-        <v>0.999</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="388">
@@ -15126,10 +15126,10 @@
         <v>1</v>
       </c>
       <c r="J388" t="n">
-        <v>0.667</v>
+        <v>0.296</v>
       </c>
       <c r="K388" t="n">
-        <v>0.611</v>
+        <v>0.595</v>
       </c>
       <c r="L388" t="n">
         <v>1</v>
@@ -15161,16 +15161,16 @@
         <v>1</v>
       </c>
       <c r="I389" t="n">
-        <v>0.998</v>
+        <v>0.835</v>
       </c>
       <c r="J389" t="n">
         <v>0</v>
       </c>
       <c r="K389" t="n">
-        <v>0.66</v>
+        <v>0.646</v>
       </c>
       <c r="L389" t="n">
-        <v>0.998</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="390">
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="J392" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="K392" t="n">
         <v>0.546</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="J393" t="n">
-        <v>0.958</v>
+        <v>0.463</v>
       </c>
       <c r="K393" t="n">
         <v>0.567</v>
@@ -15392,7 +15392,7 @@
         <v>1</v>
       </c>
       <c r="J395" t="n">
-        <v>0.103</v>
+        <v>0.003</v>
       </c>
       <c r="K395" t="n">
         <v>0.955</v>
@@ -15424,7 +15424,7 @@
         <v>1000</v>
       </c>
       <c r="H396" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -15468,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="J397" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="K397" t="n">
         <v>0.528</v>
@@ -15500,16 +15500,16 @@
         <v>1000</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
       <c r="J398" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="K398" t="n">
-        <v>0.127</v>
+        <v>0.081</v>
       </c>
       <c r="L398" t="n">
         <v>0</v>
@@ -15544,10 +15544,10 @@
         <v>1</v>
       </c>
       <c r="J399" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="K399" t="n">
-        <v>0.622</v>
+        <v>0.599</v>
       </c>
       <c r="L399" t="n">
         <v>1</v>
@@ -15579,16 +15579,16 @@
         <v>0</v>
       </c>
       <c r="I400" t="n">
-        <v>0.961</v>
+        <v>0.598</v>
       </c>
       <c r="J400" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="K400" t="n">
         <v>0</v>
       </c>
       <c r="L400" t="n">
-        <v>0.961</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="401">
@@ -15614,19 +15614,19 @@
         <v>1000</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0.954</v>
       </c>
       <c r="I401" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="J401" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
         <v>0.998</v>
-      </c>
-      <c r="K401" t="n">
-        <v>0</v>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -15658,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="n">
-        <v>0.919</v>
+        <v>0.293</v>
       </c>
       <c r="K402" t="n">
         <v>0</v>
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="J403" t="n">
-        <v>0.999</v>
+        <v>0.858</v>
       </c>
       <c r="K403" t="n">
         <v>0.001</v>
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
       <c r="J404" t="n">
         <v>1</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="405">
@@ -15810,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="n">
-        <v>0.991</v>
+        <v>0.651</v>
       </c>
       <c r="K406" t="n">
         <v>0</v>
@@ -15880,10 +15880,10 @@
         <v>1000</v>
       </c>
       <c r="H408" t="n">
-        <v>0.264</v>
+        <v>0.092</v>
       </c>
       <c r="I408" t="n">
-        <v>1</v>
+        <v>0.917</v>
       </c>
       <c r="J408" t="n">
         <v>1</v>
@@ -15892,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="n">
-        <v>1</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="409">
@@ -15956,19 +15956,19 @@
         <v>1000</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0.927</v>
       </c>
       <c r="I410" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="J410" t="n">
         <v>1</v>
       </c>
       <c r="K410" t="n">
-        <v>0.721</v>
+        <v>0.705</v>
       </c>
       <c r="L410" t="n">
-        <v>0.991</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="411">
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="K411" t="n">
-        <v>0.886</v>
+        <v>0.884</v>
       </c>
       <c r="L411" t="n">
         <v>1</v>
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="J412" t="n">
-        <v>0.902</v>
+        <v>0.679</v>
       </c>
       <c r="K412" t="n">
         <v>0</v>
@@ -16073,16 +16073,16 @@
         <v>1</v>
       </c>
       <c r="I413" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="J413" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K413" t="n">
         <v>0.001</v>
       </c>
       <c r="L413" t="n">
-        <v>1</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="414">
@@ -16152,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="J415" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K415" t="n">
         <v>0.021</v>
@@ -16228,7 +16228,7 @@
         <v>1</v>
       </c>
       <c r="J417" t="n">
-        <v>0.996</v>
+        <v>0.868</v>
       </c>
       <c r="K417" t="n">
         <v>0</v>
@@ -16304,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="J419" t="n">
-        <v>0.739</v>
+        <v>0.174</v>
       </c>
       <c r="K419" t="n">
         <v>0</v>
@@ -16412,7 +16412,7 @@
         <v>1000</v>
       </c>
       <c r="H422" t="n">
-        <v>0.982</v>
+        <v>0.8</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -16421,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="K422" t="n">
-        <v>0.942</v>
+        <v>0.941</v>
       </c>
       <c r="L422" t="n">
         <v>1</v>
@@ -16453,7 +16453,7 @@
         <v>1</v>
       </c>
       <c r="I423" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J423" t="n">
         <v>0</v>
@@ -16462,7 +16462,7 @@
         <v>0.963</v>
       </c>
       <c r="L423" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -16491,16 +16491,16 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>0.805</v>
+        <v>0.514</v>
       </c>
       <c r="J424" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K424" t="n">
         <v>0.002</v>
       </c>
       <c r="L424" t="n">
-        <v>0.805</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="425">
@@ -16535,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="K425" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="L425" t="n">
         <v>0</v>
@@ -16646,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="J428" t="n">
-        <v>0.423</v>
+        <v>0.136</v>
       </c>
       <c r="K428" t="n">
         <v>0</v>
@@ -16681,7 +16681,7 @@
         <v>1</v>
       </c>
       <c r="I429" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="J429" t="n">
         <v>0</v>
@@ -16690,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="430">
@@ -16792,13 +16792,13 @@
         <v>1000</v>
       </c>
       <c r="H432" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
       </c>
       <c r="J432" t="n">
-        <v>0.919</v>
+        <v>0.71</v>
       </c>
       <c r="K432" t="n">
         <v>0</v>
